--- a/main/metrics_results.xlsx
+++ b/main/metrics_results.xlsx
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5109170305676856</v>
+        <v>0.5219123505976095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.528</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6832298136645962</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5956678700361011</v>
+        <v>0.6703296703296703</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4979319973797331</v>
+        <v>0.4662592309651133</v>
       </c>
     </row>
   </sheetData>

--- a/main/metrics_results.xlsx
+++ b/main/metrics_results.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5219123505976095</v>
+        <v>0.5298804780876494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5258620689655172</v>
+        <v>0.5546875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.5378787878787878</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6703296703296703</v>
+        <v>0.5461538461538461</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4662592309651133</v>
+        <v>0.5067481538069774</v>
       </c>
     </row>
   </sheetData>
